--- a/results/FrequencyTables/26796669_gNef.xlsx
+++ b/results/FrequencyTables/26796669_gNef.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.02</v>
+        <v>0.105952380952381</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.036734693877551</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.116156462585034</v>
       </c>
       <c r="E2">
-        <v>0.99</v>
+        <v>0.897448979591837</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0204081632653061</v>
       </c>
       <c r="G2">
-        <v>0.99</v>
+        <v>0.951700680272109</v>
       </c>
       <c r="H2">
-        <v>0.99</v>
+        <v>0.937244897959184</v>
       </c>
       <c r="I2">
-        <v>0.12</v>
+        <v>0.210544217687075</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.949319727891156</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.0022108843537415</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.00578231292517007</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.00119047619047619</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.000170068027210884</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.0335034013605442</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.0518707482993197</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.0217687074829932</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.0256802721088435</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.998979591836735</v>
       </c>
       <c r="T2">
-        <v>0.98</v>
+        <v>0.968027210884354</v>
       </c>
       <c r="U2">
-        <v>0.03</v>
+        <v>0.122789115646259</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.00306122448979592</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00289115646258503</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.000340136054421769</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.0192176870748299</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.870068027210884</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.000170068027210884</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00255102040816327</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0506802721088435</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.000340136054421769</v>
       </c>
       <c r="H3">
-        <v>0.01</v>
+        <v>0.0569727891156463</v>
       </c>
       <c r="I3">
-        <v>0.03</v>
+        <v>0.00714285714285714</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.000680272108843537</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00952380952380952</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.000170068027210884</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.0022108843537415</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.00697278911564626</v>
       </c>
       <c r="R3">
-        <v>0.96</v>
+        <v>0.836054421768707</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.000510204081632653</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.000170068027210884</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.0105442176870748</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.0326530612244898</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.0481292517006803</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.0653061224489796</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.98</v>
+        <v>0.869897959183674</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.0564625850340136</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.054421768707483</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.0719387755102041</v>
       </c>
       <c r="F4">
-        <v>0.01</v>
+        <v>0.00986394557823129</v>
       </c>
       <c r="G4">
-        <v>0.01</v>
+        <v>0.0472789115646259</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00561224489795918</v>
       </c>
       <c r="I4">
-        <v>0.84</v>
+        <v>0.779591836734694</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0488095238095238</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0569727891156463</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.992176870748299</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.988775510204082</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.990136054421769</v>
       </c>
       <c r="O4">
-        <v>0.02</v>
+        <v>0.0564625850340136</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.947789115646258</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0.971258503401361</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.0542517006802721</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.000510204081632653</v>
       </c>
       <c r="T4">
-        <v>0.02</v>
+        <v>0.00153061224489796</v>
       </c>
       <c r="U4">
-        <v>0.96</v>
+        <v>0.866156462585034</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="W4">
-        <v>0.98</v>
+        <v>0.904081632653061</v>
       </c>
       <c r="X4">
-        <v>0.99</v>
+        <v>0.930272108843537</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.00493197278911565</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.036734693877551</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.829251700680272</v>
       </c>
       <c r="E5">
-        <v>0.01</v>
+        <v>0.0280612244897959</v>
       </c>
       <c r="F5">
-        <v>0.99</v>
+        <v>0.919047619047619</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.000680272108843537</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.000170068027210884</v>
       </c>
       <c r="I5">
-        <v>0.01</v>
+        <v>0.00238095238095238</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00187074829931973</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.940136054421769</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00204081632653061</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.000510204081632653</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.00952380952380952</v>
       </c>
       <c r="O5">
-        <v>0.98</v>
+        <v>0.90765306122449</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.000340136054421769</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.04</v>
+        <v>0.0840136054421769</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.0302721088435374</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.000340136054421769</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="W5">
-        <v>0.02</v>
+        <v>0.0448979591836735</v>
       </c>
       <c r="X5">
-        <v>0.01</v>
+        <v>0.00408163265306122</v>
       </c>
     </row>
   </sheetData>
